--- a/あなぶきリミックス＿スケジュール.xlsx
+++ b/あなぶきリミックス＿スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\京祐\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryou\Desktop\Game01\GameA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Game01</t>
     <phoneticPr fontId="1"/>
@@ -606,6 +606,10 @@
   </si>
   <si>
     <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -965,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1039,7 +1043,9 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
@@ -1067,7 +1073,9 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
@@ -1516,6 +1524,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="20">
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A32:A47"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A48:A58"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -1530,12 +1544,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A32:A47"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A48:A58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/あなぶきリミックス＿スケジュール.xlsx
+++ b/あなぶきリミックス＿スケジュール.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>Game01</t>
     <phoneticPr fontId="1"/>
@@ -606,6 +606,10 @@
   </si>
   <si>
     <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -969,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -999,7 +1003,9 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
@@ -1524,12 +1530,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="20">
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A32:A47"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A48:A58"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -1544,6 +1544,12 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A32:A47"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A48:A58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/あなぶきリミックス＿スケジュール.xlsx
+++ b/あなぶきリミックス＿スケジュール.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t>Game01</t>
     <phoneticPr fontId="1"/>
@@ -606,6 +606,10 @@
   </si>
   <si>
     <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -974,7 +978,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1013,7 +1017,9 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
@@ -1530,6 +1536,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="20">
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A32:A47"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A48:A58"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -1544,12 +1556,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A32:A47"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A48:A58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
